--- a/Code/Results/Cases/Case_3_178/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_178/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002175350322236</v>
+        <v>1.030445143898683</v>
       </c>
       <c r="D2">
-        <v>1.023667115553096</v>
+        <v>1.039062960097958</v>
       </c>
       <c r="E2">
-        <v>1.018822249337328</v>
+        <v>1.04027023772544</v>
       </c>
       <c r="F2">
-        <v>1.030903732611253</v>
+        <v>1.051528318997895</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045659522928059</v>
+        <v>1.03494385923</v>
       </c>
       <c r="J2">
-        <v>1.024291191141464</v>
+        <v>1.035586349925298</v>
       </c>
       <c r="K2">
-        <v>1.034806289888628</v>
+        <v>1.041849214684049</v>
       </c>
       <c r="L2">
-        <v>1.030025443311349</v>
+        <v>1.043053062472278</v>
       </c>
       <c r="M2">
-        <v>1.041948685117599</v>
+        <v>1.054279570991704</v>
       </c>
       <c r="N2">
-        <v>1.011982526047845</v>
+        <v>1.015852121612245</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005968655730649</v>
+        <v>1.031265460180269</v>
       </c>
       <c r="D3">
-        <v>1.02637324069326</v>
+        <v>1.039669915779776</v>
       </c>
       <c r="E3">
-        <v>1.021869466055098</v>
+        <v>1.040978810159991</v>
       </c>
       <c r="F3">
-        <v>1.034116860820279</v>
+        <v>1.052271389404828</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046413204022484</v>
+        <v>1.035052028453462</v>
       </c>
       <c r="J3">
-        <v>1.026297921147089</v>
+        <v>1.036048782361196</v>
       </c>
       <c r="K3">
-        <v>1.036679435239496</v>
+        <v>1.042266848284663</v>
       </c>
       <c r="L3">
-        <v>1.032229965646472</v>
+        <v>1.043572291948595</v>
       </c>
       <c r="M3">
-        <v>1.044331054672872</v>
+        <v>1.054835484645598</v>
       </c>
       <c r="N3">
-        <v>1.012659647507266</v>
+        <v>1.016006860125497</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008380783127285</v>
+        <v>1.031797082756673</v>
       </c>
       <c r="D4">
-        <v>1.028096496767975</v>
+        <v>1.04006320260096</v>
       </c>
       <c r="E4">
-        <v>1.023812811183546</v>
+        <v>1.041438365886394</v>
       </c>
       <c r="F4">
-        <v>1.036164870047997</v>
+        <v>1.052753175650992</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046882827912098</v>
+        <v>1.035120920469515</v>
       </c>
       <c r="J4">
-        <v>1.027572510316847</v>
+        <v>1.036348166044923</v>
       </c>
       <c r="K4">
-        <v>1.037867247453293</v>
+        <v>1.042536935117676</v>
       </c>
       <c r="L4">
-        <v>1.033632086633314</v>
+        <v>1.043908654866908</v>
       </c>
       <c r="M4">
-        <v>1.04584556353053</v>
+        <v>1.055195498716826</v>
       </c>
       <c r="N4">
-        <v>1.013089545880003</v>
+        <v>1.016106996868977</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009384994574238</v>
+        <v>1.032020772093984</v>
       </c>
       <c r="D5">
-        <v>1.028814461662969</v>
+        <v>1.040228669099151</v>
       </c>
       <c r="E5">
-        <v>1.02462317869722</v>
+        <v>1.041631815324426</v>
       </c>
       <c r="F5">
-        <v>1.037018604587777</v>
+        <v>1.052955948635401</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047075992850754</v>
+        <v>1.035149618436604</v>
       </c>
       <c r="J5">
-        <v>1.028102764042065</v>
+        <v>1.036474063609497</v>
       </c>
       <c r="K5">
-        <v>1.038360924490835</v>
+        <v>1.042650442251411</v>
       </c>
       <c r="L5">
-        <v>1.034215851318699</v>
+        <v>1.044050152847344</v>
       </c>
       <c r="M5">
-        <v>1.046475940460056</v>
+        <v>1.055346918874574</v>
       </c>
       <c r="N5">
-        <v>1.013268346437504</v>
+        <v>1.016149096378831</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009553037235944</v>
+        <v>1.032058341911452</v>
       </c>
       <c r="D6">
-        <v>1.028934634990429</v>
+        <v>1.040256459142963</v>
       </c>
       <c r="E6">
-        <v>1.024758860357192</v>
+        <v>1.041664311066979</v>
       </c>
       <c r="F6">
-        <v>1.037161530900485</v>
+        <v>1.052990008538484</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047108177640982</v>
+        <v>1.035154421435524</v>
       </c>
       <c r="J6">
-        <v>1.028191472463049</v>
+        <v>1.036495204473975</v>
       </c>
       <c r="K6">
-        <v>1.038443485503133</v>
+        <v>1.042669498364913</v>
       </c>
       <c r="L6">
-        <v>1.034313538546416</v>
+        <v>1.044073916271939</v>
       </c>
       <c r="M6">
-        <v>1.046581417061838</v>
+        <v>1.055372347053128</v>
       </c>
       <c r="N6">
-        <v>1.013298256012363</v>
+        <v>1.016156165175577</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008394239748832</v>
+        <v>1.031800070939827</v>
       </c>
       <c r="D7">
-        <v>1.028106115549872</v>
+        <v>1.040065413069119</v>
       </c>
       <c r="E7">
-        <v>1.023823665103134</v>
+        <v>1.041440949778795</v>
       </c>
       <c r="F7">
-        <v>1.036176305916244</v>
+        <v>1.052755884212347</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04688542567388</v>
+        <v>1.03512130497233</v>
       </c>
       <c r="J7">
-        <v>1.027579617353191</v>
+        <v>1.036349848152033</v>
       </c>
       <c r="K7">
-        <v>1.037873866144774</v>
+        <v>1.042538451954222</v>
       </c>
       <c r="L7">
-        <v>1.033639909085394</v>
+        <v>1.043910545214223</v>
       </c>
       <c r="M7">
-        <v>1.045854011303871</v>
+        <v>1.055197521726598</v>
       </c>
       <c r="N7">
-        <v>1.013091942541771</v>
+        <v>1.016107559397381</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003466279873713</v>
+        <v>1.030722202091799</v>
       </c>
       <c r="D8">
-        <v>1.02458751548598</v>
+        <v>1.039267969392895</v>
       </c>
       <c r="E8">
-        <v>1.019858066846072</v>
+        <v>1.040509481987603</v>
       </c>
       <c r="F8">
-        <v>1.031996184560331</v>
+        <v>1.051779240968167</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045918007925943</v>
+        <v>1.034980642997223</v>
       </c>
       <c r="J8">
-        <v>1.024974408318422</v>
+        <v>1.035742597376498</v>
       </c>
       <c r="K8">
-        <v>1.035444422696112</v>
+        <v>1.041990386106989</v>
       </c>
       <c r="L8">
-        <v>1.030775602198773</v>
+        <v>1.043228457484618</v>
       </c>
       <c r="M8">
-        <v>1.042759510840981</v>
+        <v>1.054467381280053</v>
       </c>
       <c r="N8">
-        <v>1.012213097192834</v>
+        <v>1.015904413720755</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9944436721724096</v>
+        <v>1.02882924497871</v>
       </c>
       <c r="D9">
-        <v>1.018166950639292</v>
+        <v>1.03786703995954</v>
       </c>
       <c r="E9">
-        <v>1.012643891067873</v>
+        <v>1.038876339962852</v>
       </c>
       <c r="F9">
-        <v>1.024382878623322</v>
+        <v>1.050065796025383</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044072242615268</v>
+        <v>1.034724380667958</v>
       </c>
       <c r="J9">
-        <v>1.020194176040354</v>
+        <v>1.034673823192206</v>
       </c>
       <c r="K9">
-        <v>1.030972000952568</v>
+        <v>1.041023539217582</v>
       </c>
       <c r="L9">
-        <v>1.025535107486486</v>
+        <v>1.042029563211056</v>
       </c>
       <c r="M9">
-        <v>1.037092370487306</v>
+        <v>1.053183161903321</v>
       </c>
       <c r="N9">
-        <v>1.010599200035742</v>
+        <v>1.015546548624848</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.988179862232112</v>
+        <v>1.027571677036224</v>
       </c>
       <c r="D10">
-        <v>1.013727430805321</v>
+        <v>1.036936074662433</v>
       </c>
       <c r="E10">
-        <v>1.007669562258167</v>
+        <v>1.037793228842252</v>
       </c>
       <c r="F10">
-        <v>1.01912754244703</v>
+        <v>1.048928689020054</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042742848887398</v>
+        <v>1.034547936240227</v>
       </c>
       <c r="J10">
-        <v>1.016870428018801</v>
+        <v>1.033962250575622</v>
       </c>
       <c r="K10">
-        <v>1.027853178063673</v>
+        <v>1.040378332082893</v>
       </c>
       <c r="L10">
-        <v>1.021901707511444</v>
+        <v>1.041232432632494</v>
       </c>
       <c r="M10">
-        <v>1.033159822843581</v>
+        <v>1.052328722086626</v>
       </c>
       <c r="N10">
-        <v>1.009476286053268</v>
+        <v>1.015308071951983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9854036067842632</v>
+        <v>1.027028203968911</v>
       </c>
       <c r="D11">
-        <v>1.011764724238957</v>
+        <v>1.036533690058566</v>
       </c>
       <c r="E11">
-        <v>1.005473507956858</v>
+        <v>1.037325595678993</v>
       </c>
       <c r="F11">
-        <v>1.016806099409757</v>
+        <v>1.048437567633687</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042142787717762</v>
+        <v>1.034470214113288</v>
       </c>
       <c r="J11">
-        <v>1.015396477452498</v>
+        <v>1.03365437322148</v>
       </c>
       <c r="K11">
-        <v>1.026468133951609</v>
+        <v>1.040098816262949</v>
       </c>
       <c r="L11">
-        <v>1.020292934902706</v>
+        <v>1.04088779197696</v>
       </c>
       <c r="M11">
-        <v>1.031417887471544</v>
+        <v>1.051959167282026</v>
       </c>
       <c r="N11">
-        <v>1.008978171018905</v>
+        <v>1.015204839097542</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9843623196746563</v>
+        <v>1.026826495334076</v>
       </c>
       <c r="D12">
-        <v>1.011029388792205</v>
+        <v>1.036384338139372</v>
       </c>
       <c r="E12">
-        <v>1.004651193778561</v>
+        <v>1.037152102493336</v>
       </c>
       <c r="F12">
-        <v>1.01593663747511</v>
+        <v>1.048255333851133</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041916140998674</v>
+        <v>1.034441146989783</v>
       </c>
       <c r="J12">
-        <v>1.014843562527833</v>
+        <v>1.03354005109409</v>
       </c>
       <c r="K12">
-        <v>1.025948290368734</v>
+        <v>1.039994972566896</v>
       </c>
       <c r="L12">
-        <v>1.019689823490536</v>
+        <v>1.040759857159334</v>
       </c>
       <c r="M12">
-        <v>1.03076475578455</v>
+        <v>1.051821963579134</v>
       </c>
       <c r="N12">
-        <v>1.008791296453055</v>
+        <v>1.015166498715781</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9845861421266511</v>
+        <v>1.026869755184255</v>
       </c>
       <c r="D13">
-        <v>1.011187409677031</v>
+        <v>1.036416369548457</v>
       </c>
       <c r="E13">
-        <v>1.004827886219618</v>
+        <v>1.037189307988122</v>
       </c>
       <c r="F13">
-        <v>1.016123469443951</v>
+        <v>1.048294414956413</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04196492897688</v>
+        <v>1.03444739091949</v>
       </c>
       <c r="J13">
-        <v>1.014962413503469</v>
+        <v>1.033564571870788</v>
       </c>
       <c r="K13">
-        <v>1.02606004491736</v>
+        <v>1.040017248231511</v>
       </c>
       <c r="L13">
-        <v>1.019819447206196</v>
+        <v>1.040787295962803</v>
       </c>
       <c r="M13">
-        <v>1.030905134460236</v>
+        <v>1.051851391250298</v>
       </c>
       <c r="N13">
-        <v>1.008831466622019</v>
+        <v>1.015174722627852</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9853177416206461</v>
+        <v>1.02701152736558</v>
       </c>
       <c r="D14">
-        <v>1.011704071074314</v>
+        <v>1.036521342293166</v>
       </c>
       <c r="E14">
-        <v>1.005405671503577</v>
+        <v>1.037311250451571</v>
       </c>
       <c r="F14">
-        <v>1.016734377484118</v>
+        <v>1.048422500231849</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042124130201053</v>
+        <v>1.034467815443878</v>
       </c>
       <c r="J14">
-        <v>1.015350885199609</v>
+        <v>1.033644922551012</v>
       </c>
       <c r="K14">
-        <v>1.026425274287104</v>
+        <v>1.040090232891162</v>
       </c>
       <c r="L14">
-        <v>1.020243195827835</v>
+        <v>1.040877215202319</v>
       </c>
       <c r="M14">
-        <v>1.03136402515528</v>
+        <v>1.051947824636401</v>
       </c>
       <c r="N14">
-        <v>1.00896276209752</v>
+        <v>1.015201669766715</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9857671570060063</v>
+        <v>1.027098899337062</v>
       </c>
       <c r="D15">
-        <v>1.012021561338877</v>
+        <v>1.036586034319832</v>
       </c>
       <c r="E15">
-        <v>1.005760780929888</v>
+        <v>1.037386410666267</v>
       </c>
       <c r="F15">
-        <v>1.017109818562754</v>
+        <v>1.048501443116705</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042221718747286</v>
+        <v>1.034480373496741</v>
       </c>
       <c r="J15">
-        <v>1.015589510406502</v>
+        <v>1.033694434233141</v>
       </c>
       <c r="K15">
-        <v>1.02664958609548</v>
+        <v>1.040135198665634</v>
       </c>
       <c r="L15">
-        <v>1.020503540542455</v>
+        <v>1.040932628071585</v>
       </c>
       <c r="M15">
-        <v>1.031645947782583</v>
+        <v>1.052007249149422</v>
       </c>
       <c r="N15">
-        <v>1.009043410045791</v>
+        <v>1.015218273452816</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9883627273080287</v>
+        <v>1.027607768092896</v>
       </c>
       <c r="D16">
-        <v>1.013856818993818</v>
+        <v>1.036962795147408</v>
       </c>
       <c r="E16">
-        <v>1.007814396538897</v>
+        <v>1.03782429297155</v>
       </c>
       <c r="F16">
-        <v>1.019280618894753</v>
+        <v>1.048961309729958</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042782150989381</v>
+        <v>1.034553066642079</v>
       </c>
       <c r="J16">
-        <v>1.01696750005751</v>
+        <v>1.033982688524167</v>
       </c>
       <c r="K16">
-        <v>1.027944355123676</v>
+        <v>1.04039687987064</v>
       </c>
       <c r="L16">
-        <v>1.022007711104502</v>
+        <v>1.041255316437128</v>
       </c>
       <c r="M16">
-        <v>1.033274586491904</v>
+        <v>1.052353257294685</v>
       </c>
       <c r="N16">
-        <v>1.009509088271488</v>
+        <v>1.01531492383462</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9899734202115287</v>
+        <v>1.027927253716546</v>
       </c>
       <c r="D17">
-        <v>1.014997059010077</v>
+        <v>1.037199324011816</v>
       </c>
       <c r="E17">
-        <v>1.009091106966498</v>
+        <v>1.038099330863312</v>
       </c>
       <c r="F17">
-        <v>1.020629832160794</v>
+        <v>1.049250109081124</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043127095675492</v>
+        <v>1.034598312103862</v>
       </c>
       <c r="J17">
-        <v>1.017822433634064</v>
+        <v>1.034163567631094</v>
       </c>
       <c r="K17">
-        <v>1.028747147644081</v>
+        <v>1.040560989983525</v>
       </c>
       <c r="L17">
-        <v>1.022941591916498</v>
+        <v>1.041457871261191</v>
       </c>
       <c r="M17">
-        <v>1.034285562519385</v>
+        <v>1.052570413666444</v>
       </c>
       <c r="N17">
-        <v>1.009797967748326</v>
+        <v>1.015375558230308</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9909067682091124</v>
+        <v>1.028113706631151</v>
       </c>
       <c r="D18">
-        <v>1.015658263524134</v>
+        <v>1.037337357547676</v>
       </c>
       <c r="E18">
-        <v>1.009831743979572</v>
+        <v>1.038259886997815</v>
       </c>
       <c r="F18">
-        <v>1.02141240189558</v>
+        <v>1.049418681645602</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043325945603062</v>
+        <v>1.034624575555742</v>
       </c>
       <c r="J18">
-        <v>1.01831776380752</v>
+        <v>1.03426909424904</v>
       </c>
       <c r="K18">
-        <v>1.02921207994224</v>
+        <v>1.04065669932985</v>
       </c>
       <c r="L18">
-        <v>1.023482899640072</v>
+        <v>1.041576068333973</v>
       </c>
       <c r="M18">
-        <v>1.034871489212319</v>
+        <v>1.05269711802242</v>
       </c>
       <c r="N18">
-        <v>1.009965324142002</v>
+        <v>1.015410928022011</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9912239872107056</v>
+        <v>1.028177299560651</v>
       </c>
       <c r="D19">
-        <v>1.015883066286577</v>
+        <v>1.037384435270035</v>
       </c>
       <c r="E19">
-        <v>1.010083603696516</v>
+        <v>1.038314654677858</v>
       </c>
       <c r="F19">
-        <v>1.021678499493935</v>
+        <v>1.049476180953182</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043393352192487</v>
+        <v>1.034633509072447</v>
       </c>
       <c r="J19">
-        <v>1.018486098404119</v>
+        <v>1.034305079938577</v>
       </c>
       <c r="K19">
-        <v>1.029370051578394</v>
+        <v>1.040689331441362</v>
       </c>
       <c r="L19">
-        <v>1.023666899533274</v>
+        <v>1.041616378958788</v>
       </c>
       <c r="M19">
-        <v>1.035070644128675</v>
+        <v>1.052740327784797</v>
       </c>
       <c r="N19">
-        <v>1.010022196591517</v>
+        <v>1.015422988661663</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9898012465612275</v>
+        <v>1.027892965332004</v>
       </c>
       <c r="D20">
-        <v>1.01487512484351</v>
+        <v>1.037173939422065</v>
       </c>
       <c r="E20">
-        <v>1.008954548492671</v>
+        <v>1.038069808316163</v>
       </c>
       <c r="F20">
-        <v>1.020485531848744</v>
+        <v>1.049219111133906</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043090330114271</v>
+        <v>1.034593470872594</v>
       </c>
       <c r="J20">
-        <v>1.017731054068158</v>
+        <v>1.034144158636279</v>
       </c>
       <c r="K20">
-        <v>1.028661360604049</v>
+        <v>1.040543383887102</v>
       </c>
       <c r="L20">
-        <v>1.022841749452207</v>
+        <v>1.041436133834092</v>
       </c>
       <c r="M20">
-        <v>1.034177484692214</v>
+        <v>1.052547110618135</v>
       </c>
       <c r="N20">
-        <v>1.009767092319877</v>
+        <v>1.015369052442739</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9851025853073127</v>
+        <v>1.026969774519511</v>
       </c>
       <c r="D21">
-        <v>1.011552102993333</v>
+        <v>1.036490427338102</v>
       </c>
       <c r="E21">
-        <v>1.005235712630665</v>
+        <v>1.037275335715585</v>
       </c>
       <c r="F21">
-        <v>1.016554680723603</v>
+        <v>1.048384777032019</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042077353857027</v>
+        <v>1.034461806381176</v>
       </c>
       <c r="J21">
-        <v>1.01523664139171</v>
+        <v>1.033621260239154</v>
       </c>
       <c r="K21">
-        <v>1.026317873273005</v>
+        <v>1.040068741242609</v>
       </c>
       <c r="L21">
-        <v>1.020118567141499</v>
+        <v>1.040850734004214</v>
       </c>
       <c r="M21">
-        <v>1.031229063501282</v>
+        <v>1.051919425587653</v>
       </c>
       <c r="N21">
-        <v>1.008924150544029</v>
+        <v>1.015193734366594</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9820898922640386</v>
+        <v>1.026390262909773</v>
       </c>
       <c r="D22">
-        <v>1.009426219030911</v>
+        <v>1.036061323076116</v>
       </c>
       <c r="E22">
-        <v>1.002859192020086</v>
+        <v>1.036777015578294</v>
       </c>
       <c r="F22">
-        <v>1.014041535572656</v>
+        <v>1.047861301744209</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041418669958759</v>
+        <v>1.034377880422485</v>
       </c>
       <c r="J22">
-        <v>1.013636814021275</v>
+        <v>1.033292709372875</v>
       </c>
       <c r="K22">
-        <v>1.024813225294851</v>
+        <v>1.039770204946616</v>
       </c>
       <c r="L22">
-        <v>1.018374219755353</v>
+        <v>1.040483133940286</v>
       </c>
       <c r="M22">
-        <v>1.029339866324663</v>
+        <v>1.051525154411189</v>
       </c>
       <c r="N22">
-        <v>1.008383406049678</v>
+        <v>1.015083533523169</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9836926757659973</v>
+        <v>1.026697383712638</v>
       </c>
       <c r="D23">
-        <v>1.010556738091322</v>
+        <v>1.036288737365006</v>
       </c>
       <c r="E23">
-        <v>1.004122759132094</v>
+        <v>1.037041070413083</v>
       </c>
       <c r="F23">
-        <v>1.015377850136933</v>
+        <v>1.048138700532257</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041769946350995</v>
+        <v>1.034422479285996</v>
       </c>
       <c r="J23">
-        <v>1.014487968803431</v>
+        <v>1.033466859441319</v>
       </c>
       <c r="K23">
-        <v>1.02561388895022</v>
+        <v>1.039928474580354</v>
       </c>
       <c r="L23">
-        <v>1.019302054247763</v>
+        <v>1.040677961162797</v>
       </c>
       <c r="M23">
-        <v>1.030344799164977</v>
+        <v>1.051734128461949</v>
       </c>
       <c r="N23">
-        <v>1.008671107505598</v>
+        <v>1.015141950191252</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.989879063370867</v>
+        <v>1.027908458461032</v>
       </c>
       <c r="D24">
-        <v>1.01493023361319</v>
+        <v>1.037185409408716</v>
       </c>
       <c r="E24">
-        <v>1.009016265875037</v>
+        <v>1.038083147879379</v>
       </c>
       <c r="F24">
-        <v>1.020550748536589</v>
+        <v>1.049233117399047</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043106950146228</v>
+        <v>1.034595658810541</v>
       </c>
       <c r="J24">
-        <v>1.017772354861944</v>
+        <v>1.034152928655031</v>
       </c>
       <c r="K24">
-        <v>1.02870013433097</v>
+        <v>1.040551339365538</v>
       </c>
       <c r="L24">
-        <v>1.022886874484644</v>
+        <v>1.041445955886608</v>
       </c>
       <c r="M24">
-        <v>1.034226332009451</v>
+        <v>1.052557640137026</v>
       </c>
       <c r="N24">
-        <v>1.009781047121747</v>
+        <v>1.015371992119599</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.996818476686902</v>
+        <v>1.029317851704554</v>
       </c>
       <c r="D25">
-        <v>1.019854031283673</v>
+        <v>1.038228695825924</v>
       </c>
       <c r="E25">
-        <v>1.014537017492885</v>
+        <v>1.039297559308408</v>
       </c>
       <c r="F25">
-        <v>1.026381764408923</v>
+        <v>1.050507857421466</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044566535775497</v>
+        <v>1.03479162135137</v>
       </c>
       <c r="J25">
-        <v>1.021453388224553</v>
+        <v>1.034949966741118</v>
       </c>
       <c r="K25">
-        <v>1.032151763246355</v>
+        <v>1.041273611919749</v>
       </c>
       <c r="L25">
-        <v>1.02691377980995</v>
+        <v>1.042339137174159</v>
       </c>
       <c r="M25">
-        <v>1.038583890283815</v>
+        <v>1.053514870329252</v>
       </c>
       <c r="N25">
-        <v>1.011024474538646</v>
+        <v>1.01563904992083</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_178/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_178/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030445143898683</v>
+        <v>1.002175350322235</v>
       </c>
       <c r="D2">
-        <v>1.039062960097958</v>
+        <v>1.023667115553095</v>
       </c>
       <c r="E2">
-        <v>1.04027023772544</v>
+        <v>1.018822249337328</v>
       </c>
       <c r="F2">
-        <v>1.051528318997895</v>
+        <v>1.030903732611252</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03494385923</v>
+        <v>1.045659522928059</v>
       </c>
       <c r="J2">
-        <v>1.035586349925298</v>
+        <v>1.024291191141463</v>
       </c>
       <c r="K2">
-        <v>1.041849214684049</v>
+        <v>1.034806289888627</v>
       </c>
       <c r="L2">
-        <v>1.043053062472278</v>
+        <v>1.030025443311349</v>
       </c>
       <c r="M2">
-        <v>1.054279570991704</v>
+        <v>1.041948685117599</v>
       </c>
       <c r="N2">
-        <v>1.015852121612245</v>
+        <v>1.011982526047844</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031265460180269</v>
+        <v>1.005968655730648</v>
       </c>
       <c r="D3">
-        <v>1.039669915779776</v>
+        <v>1.026373240693258</v>
       </c>
       <c r="E3">
-        <v>1.040978810159991</v>
+        <v>1.021869466055096</v>
       </c>
       <c r="F3">
-        <v>1.052271389404828</v>
+        <v>1.034116860820277</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035052028453462</v>
+        <v>1.046413204022484</v>
       </c>
       <c r="J3">
-        <v>1.036048782361196</v>
+        <v>1.026297921147088</v>
       </c>
       <c r="K3">
-        <v>1.042266848284663</v>
+        <v>1.036679435239495</v>
       </c>
       <c r="L3">
-        <v>1.043572291948595</v>
+        <v>1.03222996564647</v>
       </c>
       <c r="M3">
-        <v>1.054835484645598</v>
+        <v>1.04433105467287</v>
       </c>
       <c r="N3">
-        <v>1.016006860125497</v>
+        <v>1.012659647507265</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031797082756673</v>
+        <v>1.008380783127285</v>
       </c>
       <c r="D4">
-        <v>1.04006320260096</v>
+        <v>1.028096496767975</v>
       </c>
       <c r="E4">
-        <v>1.041438365886394</v>
+        <v>1.023812811183545</v>
       </c>
       <c r="F4">
-        <v>1.052753175650992</v>
+        <v>1.036164870047996</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035120920469515</v>
+        <v>1.046882827912097</v>
       </c>
       <c r="J4">
-        <v>1.036348166044923</v>
+        <v>1.027572510316846</v>
       </c>
       <c r="K4">
-        <v>1.042536935117676</v>
+        <v>1.037867247453292</v>
       </c>
       <c r="L4">
-        <v>1.043908654866908</v>
+        <v>1.033632086633314</v>
       </c>
       <c r="M4">
-        <v>1.055195498716826</v>
+        <v>1.045845563530529</v>
       </c>
       <c r="N4">
-        <v>1.016106996868977</v>
+        <v>1.013089545880002</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032020772093984</v>
+        <v>1.009384994574238</v>
       </c>
       <c r="D5">
-        <v>1.040228669099151</v>
+        <v>1.028814461662969</v>
       </c>
       <c r="E5">
-        <v>1.041631815324426</v>
+        <v>1.024623178697219</v>
       </c>
       <c r="F5">
-        <v>1.052955948635401</v>
+        <v>1.037018604587777</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035149618436604</v>
+        <v>1.047075992850754</v>
       </c>
       <c r="J5">
-        <v>1.036474063609497</v>
+        <v>1.028102764042064</v>
       </c>
       <c r="K5">
-        <v>1.042650442251411</v>
+        <v>1.038360924490834</v>
       </c>
       <c r="L5">
-        <v>1.044050152847344</v>
+        <v>1.034215851318699</v>
       </c>
       <c r="M5">
-        <v>1.055346918874574</v>
+        <v>1.046475940460055</v>
       </c>
       <c r="N5">
-        <v>1.016149096378831</v>
+        <v>1.013268346437504</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032058341911452</v>
+        <v>1.009553037235943</v>
       </c>
       <c r="D6">
-        <v>1.040256459142963</v>
+        <v>1.028934634990428</v>
       </c>
       <c r="E6">
-        <v>1.041664311066979</v>
+        <v>1.024758860357191</v>
       </c>
       <c r="F6">
-        <v>1.052990008538484</v>
+        <v>1.037161530900484</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035154421435524</v>
+        <v>1.047108177640982</v>
       </c>
       <c r="J6">
-        <v>1.036495204473975</v>
+        <v>1.028191472463048</v>
       </c>
       <c r="K6">
-        <v>1.042669498364913</v>
+        <v>1.038443485503133</v>
       </c>
       <c r="L6">
-        <v>1.044073916271939</v>
+        <v>1.034313538546416</v>
       </c>
       <c r="M6">
-        <v>1.055372347053128</v>
+        <v>1.046581417061837</v>
       </c>
       <c r="N6">
-        <v>1.016156165175577</v>
+        <v>1.013298256012362</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031800070939827</v>
+        <v>1.008394239748832</v>
       </c>
       <c r="D7">
-        <v>1.040065413069119</v>
+        <v>1.028106115549872</v>
       </c>
       <c r="E7">
-        <v>1.041440949778795</v>
+        <v>1.023823665103134</v>
       </c>
       <c r="F7">
-        <v>1.052755884212347</v>
+        <v>1.036176305916245</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03512130497233</v>
+        <v>1.04688542567388</v>
       </c>
       <c r="J7">
-        <v>1.036349848152033</v>
+        <v>1.027579617353191</v>
       </c>
       <c r="K7">
-        <v>1.042538451954222</v>
+        <v>1.037873866144775</v>
       </c>
       <c r="L7">
-        <v>1.043910545214223</v>
+        <v>1.033639909085394</v>
       </c>
       <c r="M7">
-        <v>1.055197521726598</v>
+        <v>1.045854011303871</v>
       </c>
       <c r="N7">
-        <v>1.016107559397381</v>
+        <v>1.013091942541771</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030722202091799</v>
+        <v>1.003466279873712</v>
       </c>
       <c r="D8">
-        <v>1.039267969392895</v>
+        <v>1.024587515485978</v>
       </c>
       <c r="E8">
-        <v>1.040509481987603</v>
+        <v>1.01985806684607</v>
       </c>
       <c r="F8">
-        <v>1.051779240968167</v>
+        <v>1.031996184560329</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034980642997223</v>
+        <v>1.045918007925943</v>
       </c>
       <c r="J8">
-        <v>1.035742597376498</v>
+        <v>1.02497440831842</v>
       </c>
       <c r="K8">
-        <v>1.041990386106989</v>
+        <v>1.035444422696111</v>
       </c>
       <c r="L8">
-        <v>1.043228457484618</v>
+        <v>1.030775602198771</v>
       </c>
       <c r="M8">
-        <v>1.054467381280053</v>
+        <v>1.042759510840979</v>
       </c>
       <c r="N8">
-        <v>1.015904413720755</v>
+        <v>1.012213097192833</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02882924497871</v>
+        <v>0.994443672172409</v>
       </c>
       <c r="D9">
-        <v>1.03786703995954</v>
+        <v>1.018166950639292</v>
       </c>
       <c r="E9">
-        <v>1.038876339962852</v>
+        <v>1.012643891067872</v>
       </c>
       <c r="F9">
-        <v>1.050065796025383</v>
+        <v>1.024382878623322</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034724380667958</v>
+        <v>1.044072242615268</v>
       </c>
       <c r="J9">
-        <v>1.034673823192206</v>
+        <v>1.020194176040353</v>
       </c>
       <c r="K9">
-        <v>1.041023539217582</v>
+        <v>1.030972000952567</v>
       </c>
       <c r="L9">
-        <v>1.042029563211056</v>
+        <v>1.025535107486486</v>
       </c>
       <c r="M9">
-        <v>1.053183161903321</v>
+        <v>1.037092370487306</v>
       </c>
       <c r="N9">
-        <v>1.015546548624848</v>
+        <v>1.010599200035742</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027571677036224</v>
+        <v>0.9881798622321111</v>
       </c>
       <c r="D10">
-        <v>1.036936074662433</v>
+        <v>1.013727430805321</v>
       </c>
       <c r="E10">
-        <v>1.037793228842252</v>
+        <v>1.007669562258166</v>
       </c>
       <c r="F10">
-        <v>1.048928689020054</v>
+        <v>1.019127542447029</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034547936240227</v>
+        <v>1.042742848887397</v>
       </c>
       <c r="J10">
-        <v>1.033962250575622</v>
+        <v>1.0168704280188</v>
       </c>
       <c r="K10">
-        <v>1.040378332082893</v>
+        <v>1.027853178063673</v>
       </c>
       <c r="L10">
-        <v>1.041232432632494</v>
+        <v>1.021901707511443</v>
       </c>
       <c r="M10">
-        <v>1.052328722086626</v>
+        <v>1.03315982284358</v>
       </c>
       <c r="N10">
-        <v>1.015308071951983</v>
+        <v>1.009476286053267</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027028203968911</v>
+        <v>0.9854036067842629</v>
       </c>
       <c r="D11">
-        <v>1.036533690058566</v>
+        <v>1.011764724238957</v>
       </c>
       <c r="E11">
-        <v>1.037325595678993</v>
+        <v>1.005473507956858</v>
       </c>
       <c r="F11">
-        <v>1.048437567633687</v>
+        <v>1.016806099409757</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034470214113288</v>
+        <v>1.042142787717762</v>
       </c>
       <c r="J11">
-        <v>1.03365437322148</v>
+        <v>1.015396477452497</v>
       </c>
       <c r="K11">
-        <v>1.040098816262949</v>
+        <v>1.026468133951609</v>
       </c>
       <c r="L11">
-        <v>1.04088779197696</v>
+        <v>1.020292934902706</v>
       </c>
       <c r="M11">
-        <v>1.051959167282026</v>
+        <v>1.031417887471543</v>
       </c>
       <c r="N11">
-        <v>1.015204839097542</v>
+        <v>1.008978171018904</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026826495334076</v>
+        <v>0.9843623196746558</v>
       </c>
       <c r="D12">
-        <v>1.036384338139372</v>
+        <v>1.011029388792205</v>
       </c>
       <c r="E12">
-        <v>1.037152102493336</v>
+        <v>1.004651193778561</v>
       </c>
       <c r="F12">
-        <v>1.048255333851133</v>
+        <v>1.01593663747511</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034441146989783</v>
+        <v>1.041916140998674</v>
       </c>
       <c r="J12">
-        <v>1.03354005109409</v>
+        <v>1.014843562527833</v>
       </c>
       <c r="K12">
-        <v>1.039994972566896</v>
+        <v>1.025948290368734</v>
       </c>
       <c r="L12">
-        <v>1.040759857159334</v>
+        <v>1.019689823490536</v>
       </c>
       <c r="M12">
-        <v>1.051821963579134</v>
+        <v>1.030764755784549</v>
       </c>
       <c r="N12">
-        <v>1.015166498715781</v>
+        <v>1.008791296453055</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026869755184255</v>
+        <v>0.9845861421266504</v>
       </c>
       <c r="D13">
-        <v>1.036416369548457</v>
+        <v>1.01118740967703</v>
       </c>
       <c r="E13">
-        <v>1.037189307988122</v>
+        <v>1.004827886219617</v>
       </c>
       <c r="F13">
-        <v>1.048294414956413</v>
+        <v>1.016123469443951</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03444739091949</v>
+        <v>1.04196492897688</v>
       </c>
       <c r="J13">
-        <v>1.033564571870788</v>
+        <v>1.014962413503468</v>
       </c>
       <c r="K13">
-        <v>1.040017248231511</v>
+        <v>1.026060044917359</v>
       </c>
       <c r="L13">
-        <v>1.040787295962803</v>
+        <v>1.019819447206195</v>
       </c>
       <c r="M13">
-        <v>1.051851391250298</v>
+        <v>1.030905134460236</v>
       </c>
       <c r="N13">
-        <v>1.015174722627852</v>
+        <v>1.008831466622019</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02701152736558</v>
+        <v>0.9853177416206457</v>
       </c>
       <c r="D14">
-        <v>1.036521342293166</v>
+        <v>1.011704071074314</v>
       </c>
       <c r="E14">
-        <v>1.037311250451571</v>
+        <v>1.005405671503577</v>
       </c>
       <c r="F14">
-        <v>1.048422500231849</v>
+        <v>1.016734377484118</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034467815443878</v>
+        <v>1.042124130201053</v>
       </c>
       <c r="J14">
-        <v>1.033644922551012</v>
+        <v>1.015350885199609</v>
       </c>
       <c r="K14">
-        <v>1.040090232891162</v>
+        <v>1.026425274287104</v>
       </c>
       <c r="L14">
-        <v>1.040877215202319</v>
+        <v>1.020243195827835</v>
       </c>
       <c r="M14">
-        <v>1.051947824636401</v>
+        <v>1.03136402515528</v>
       </c>
       <c r="N14">
-        <v>1.015201669766715</v>
+        <v>1.00896276209752</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027098899337062</v>
+        <v>0.9857671570060063</v>
       </c>
       <c r="D15">
-        <v>1.036586034319832</v>
+        <v>1.012021561338876</v>
       </c>
       <c r="E15">
-        <v>1.037386410666267</v>
+        <v>1.005760780929888</v>
       </c>
       <c r="F15">
-        <v>1.048501443116705</v>
+        <v>1.017109818562754</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034480373496741</v>
+        <v>1.042221718747286</v>
       </c>
       <c r="J15">
-        <v>1.033694434233141</v>
+        <v>1.015589510406502</v>
       </c>
       <c r="K15">
-        <v>1.040135198665634</v>
+        <v>1.02664958609548</v>
       </c>
       <c r="L15">
-        <v>1.040932628071585</v>
+        <v>1.020503540542455</v>
       </c>
       <c r="M15">
-        <v>1.052007249149422</v>
+        <v>1.031645947782584</v>
       </c>
       <c r="N15">
-        <v>1.015218273452816</v>
+        <v>1.009043410045791</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027607768092896</v>
+        <v>0.9883627273080285</v>
       </c>
       <c r="D16">
-        <v>1.036962795147408</v>
+        <v>1.013856818993818</v>
       </c>
       <c r="E16">
-        <v>1.03782429297155</v>
+        <v>1.007814396538897</v>
       </c>
       <c r="F16">
-        <v>1.048961309729958</v>
+        <v>1.019280618894753</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034553066642079</v>
+        <v>1.042782150989381</v>
       </c>
       <c r="J16">
-        <v>1.033982688524167</v>
+        <v>1.01696750005751</v>
       </c>
       <c r="K16">
-        <v>1.04039687987064</v>
+        <v>1.027944355123676</v>
       </c>
       <c r="L16">
-        <v>1.041255316437128</v>
+        <v>1.022007711104502</v>
       </c>
       <c r="M16">
-        <v>1.052353257294685</v>
+        <v>1.033274586491904</v>
       </c>
       <c r="N16">
-        <v>1.01531492383462</v>
+        <v>1.009509088271488</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027927253716546</v>
+        <v>0.9899734202115289</v>
       </c>
       <c r="D17">
-        <v>1.037199324011816</v>
+        <v>1.014997059010077</v>
       </c>
       <c r="E17">
-        <v>1.038099330863312</v>
+        <v>1.009091106966498</v>
       </c>
       <c r="F17">
-        <v>1.049250109081124</v>
+        <v>1.020629832160794</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034598312103862</v>
+        <v>1.043127095675493</v>
       </c>
       <c r="J17">
-        <v>1.034163567631094</v>
+        <v>1.017822433634064</v>
       </c>
       <c r="K17">
-        <v>1.040560989983525</v>
+        <v>1.028747147644081</v>
       </c>
       <c r="L17">
-        <v>1.041457871261191</v>
+        <v>1.022941591916498</v>
       </c>
       <c r="M17">
-        <v>1.052570413666444</v>
+        <v>1.034285562519385</v>
       </c>
       <c r="N17">
-        <v>1.015375558230308</v>
+        <v>1.009797967748326</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028113706631151</v>
+        <v>0.9909067682091122</v>
       </c>
       <c r="D18">
-        <v>1.037337357547676</v>
+        <v>1.015658263524134</v>
       </c>
       <c r="E18">
-        <v>1.038259886997815</v>
+        <v>1.009831743979572</v>
       </c>
       <c r="F18">
-        <v>1.049418681645602</v>
+        <v>1.02141240189558</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034624575555742</v>
+        <v>1.043325945603062</v>
       </c>
       <c r="J18">
-        <v>1.03426909424904</v>
+        <v>1.01831776380752</v>
       </c>
       <c r="K18">
-        <v>1.04065669932985</v>
+        <v>1.02921207994224</v>
       </c>
       <c r="L18">
-        <v>1.041576068333973</v>
+        <v>1.023482899640071</v>
       </c>
       <c r="M18">
-        <v>1.05269711802242</v>
+        <v>1.034871489212319</v>
       </c>
       <c r="N18">
-        <v>1.015410928022011</v>
+        <v>1.009965324142002</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028177299560651</v>
+        <v>0.9912239872107043</v>
       </c>
       <c r="D19">
-        <v>1.037384435270035</v>
+        <v>1.015883066286576</v>
       </c>
       <c r="E19">
-        <v>1.038314654677858</v>
+        <v>1.010083603696515</v>
       </c>
       <c r="F19">
-        <v>1.049476180953182</v>
+        <v>1.021678499493934</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034633509072447</v>
+        <v>1.043393352192487</v>
       </c>
       <c r="J19">
-        <v>1.034305079938577</v>
+        <v>1.018486098404118</v>
       </c>
       <c r="K19">
-        <v>1.040689331441362</v>
+        <v>1.029370051578393</v>
       </c>
       <c r="L19">
-        <v>1.041616378958788</v>
+        <v>1.023666899533273</v>
       </c>
       <c r="M19">
-        <v>1.052740327784797</v>
+        <v>1.035070644128674</v>
       </c>
       <c r="N19">
-        <v>1.015422988661663</v>
+        <v>1.010022196591517</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027892965332004</v>
+        <v>0.9898012465612266</v>
       </c>
       <c r="D20">
-        <v>1.037173939422065</v>
+        <v>1.014875124843508</v>
       </c>
       <c r="E20">
-        <v>1.038069808316163</v>
+        <v>1.00895454849267</v>
       </c>
       <c r="F20">
-        <v>1.049219111133906</v>
+        <v>1.020485531848743</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034593470872594</v>
+        <v>1.04309033011427</v>
       </c>
       <c r="J20">
-        <v>1.034144158636279</v>
+        <v>1.017731054068157</v>
       </c>
       <c r="K20">
-        <v>1.040543383887102</v>
+        <v>1.028661360604048</v>
       </c>
       <c r="L20">
-        <v>1.041436133834092</v>
+        <v>1.022841749452206</v>
       </c>
       <c r="M20">
-        <v>1.052547110618135</v>
+        <v>1.034177484692213</v>
       </c>
       <c r="N20">
-        <v>1.015369052442739</v>
+        <v>1.009767092319877</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026969774519511</v>
+        <v>0.9851025853073118</v>
       </c>
       <c r="D21">
-        <v>1.036490427338102</v>
+        <v>1.011552102993331</v>
       </c>
       <c r="E21">
-        <v>1.037275335715585</v>
+        <v>1.005235712630664</v>
       </c>
       <c r="F21">
-        <v>1.048384777032019</v>
+        <v>1.016554680723602</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034461806381176</v>
+        <v>1.042077353857026</v>
       </c>
       <c r="J21">
-        <v>1.033621260239154</v>
+        <v>1.015236641391709</v>
       </c>
       <c r="K21">
-        <v>1.040068741242609</v>
+        <v>1.026317873273004</v>
       </c>
       <c r="L21">
-        <v>1.040850734004214</v>
+        <v>1.020118567141498</v>
       </c>
       <c r="M21">
-        <v>1.051919425587653</v>
+        <v>1.031229063501281</v>
       </c>
       <c r="N21">
-        <v>1.015193734366594</v>
+        <v>1.008924150544029</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026390262909773</v>
+        <v>0.9820898922640389</v>
       </c>
       <c r="D22">
-        <v>1.036061323076116</v>
+        <v>1.009426219030911</v>
       </c>
       <c r="E22">
-        <v>1.036777015578294</v>
+        <v>1.002859192020086</v>
       </c>
       <c r="F22">
-        <v>1.047861301744209</v>
+        <v>1.014041535572656</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034377880422485</v>
+        <v>1.041418669958759</v>
       </c>
       <c r="J22">
-        <v>1.033292709372875</v>
+        <v>1.013636814021275</v>
       </c>
       <c r="K22">
-        <v>1.039770204946616</v>
+        <v>1.024813225294851</v>
       </c>
       <c r="L22">
-        <v>1.040483133940286</v>
+        <v>1.018374219755354</v>
       </c>
       <c r="M22">
-        <v>1.051525154411189</v>
+        <v>1.029339866324663</v>
       </c>
       <c r="N22">
-        <v>1.015083533523169</v>
+        <v>1.008383406049678</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026697383712638</v>
+        <v>0.9836926757659967</v>
       </c>
       <c r="D23">
-        <v>1.036288737365006</v>
+        <v>1.010556738091322</v>
       </c>
       <c r="E23">
-        <v>1.037041070413083</v>
+        <v>1.004122759132093</v>
       </c>
       <c r="F23">
-        <v>1.048138700532257</v>
+        <v>1.015377850136933</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034422479285996</v>
+        <v>1.041769946350995</v>
       </c>
       <c r="J23">
-        <v>1.033466859441319</v>
+        <v>1.01448796880343</v>
       </c>
       <c r="K23">
-        <v>1.039928474580354</v>
+        <v>1.02561388895022</v>
       </c>
       <c r="L23">
-        <v>1.040677961162797</v>
+        <v>1.019302054247763</v>
       </c>
       <c r="M23">
-        <v>1.051734128461949</v>
+        <v>1.030344799164976</v>
       </c>
       <c r="N23">
-        <v>1.015141950191252</v>
+        <v>1.008671107505598</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027908458461032</v>
+        <v>0.9898790633708661</v>
       </c>
       <c r="D24">
-        <v>1.037185409408716</v>
+        <v>1.014930233613189</v>
       </c>
       <c r="E24">
-        <v>1.038083147879379</v>
+        <v>1.009016265875036</v>
       </c>
       <c r="F24">
-        <v>1.049233117399047</v>
+        <v>1.020550748536588</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034595658810541</v>
+        <v>1.043106950146228</v>
       </c>
       <c r="J24">
-        <v>1.034152928655031</v>
+        <v>1.017772354861943</v>
       </c>
       <c r="K24">
-        <v>1.040551339365538</v>
+        <v>1.028700134330969</v>
       </c>
       <c r="L24">
-        <v>1.041445955886608</v>
+        <v>1.022886874484644</v>
       </c>
       <c r="M24">
-        <v>1.052557640137026</v>
+        <v>1.03422633200945</v>
       </c>
       <c r="N24">
-        <v>1.015371992119599</v>
+        <v>1.009781047121746</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029317851704554</v>
+        <v>0.9968184766869018</v>
       </c>
       <c r="D25">
-        <v>1.038228695825924</v>
+        <v>1.019854031283673</v>
       </c>
       <c r="E25">
-        <v>1.039297559308408</v>
+        <v>1.014537017492885</v>
       </c>
       <c r="F25">
-        <v>1.050507857421466</v>
+        <v>1.026381764408923</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03479162135137</v>
+        <v>1.044566535775497</v>
       </c>
       <c r="J25">
-        <v>1.034949966741118</v>
+        <v>1.021453388224553</v>
       </c>
       <c r="K25">
-        <v>1.041273611919749</v>
+        <v>1.032151763246355</v>
       </c>
       <c r="L25">
-        <v>1.042339137174159</v>
+        <v>1.02691377980995</v>
       </c>
       <c r="M25">
-        <v>1.053514870329252</v>
+        <v>1.038583890283814</v>
       </c>
       <c r="N25">
-        <v>1.01563904992083</v>
+        <v>1.011024474538646</v>
       </c>
     </row>
   </sheetData>
